--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="773">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2300,7 +2300,7 @@
     <t xml:space="preserve">25-Feb</t>
   </si>
   <si>
-    <t xml:space="preserve">The Sweet Indeifference of the World</t>
+    <t xml:space="preserve">The Sweet Indifference of the World</t>
   </si>
   <si>
     <t xml:space="preserve">Peter Stamm</t>
@@ -2316,17 +2316,63 @@
   </si>
   <si>
     <t xml:space="preserve">5-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucinella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lore Segal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run to Earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Yoon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-Mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mysterious Affair at Styles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agatha Christie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hound of Baskervilles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arthur Conan Doyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Apr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Buried Giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-May</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D;@"/>
     <numFmt numFmtId="166" formatCode="D\-MMM"/>
     <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -2431,10 +2477,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
@@ -2444,6 +2486,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2528,10 +2574,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K356"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A346" activeCellId="0" sqref="A346"/>
+      <selection pane="topLeft" activeCell="A360" activeCellId="0" sqref="A360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8632,7 +8678,7 @@
       <c r="A230" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="1" t="s">
         <v>507</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -9256,7 +9302,7 @@
       <c r="A254" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="1" t="s">
         <v>556</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -9990,7 +10036,7 @@
       <c r="A282" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B282" s="4" t="s">
+      <c r="B282" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -10760,8 +10806,8 @@
       <c r="I310" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J310" s="5"/>
-      <c r="K310" s="6"/>
+      <c r="J310" s="4"/>
+      <c r="K310" s="5"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
@@ -11004,7 +11050,7 @@
       <c r="A320" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B320" s="4" t="s">
+      <c r="B320" s="1" t="s">
         <v>681</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -11186,106 +11232,106 @@
       </c>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A327" s="7" t="s">
+      <c r="A327" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B327" s="7" t="s">
+      <c r="B327" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="C327" s="7" t="s">
+      <c r="C327" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="D327" s="7" t="s">
+      <c r="D327" s="6" t="s">
         <v>107</v>
       </c>
       <c r="E327" s="3" t="n">
         <v>43666</v>
       </c>
-      <c r="F327" s="7" t="n">
+      <c r="F327" s="6" t="n">
         <v>2019</v>
       </c>
-      <c r="H327" s="7" t="n">
+      <c r="H327" s="6" t="n">
         <v>176</v>
       </c>
-      <c r="I327" s="7" t="s">
+      <c r="I327" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="7" t="s">
+      <c r="A328" s="6" t="s">
         <v>696</v>
       </c>
-      <c r="B328" s="7" t="s">
+      <c r="B328" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="C328" s="7" t="s">
+      <c r="C328" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D328" s="7" t="s">
+      <c r="D328" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E328" s="3" t="n">
         <v>43671</v>
       </c>
-      <c r="F328" s="7" t="n">
+      <c r="F328" s="6" t="n">
         <v>2019</v>
       </c>
-      <c r="H328" s="7" t="n">
+      <c r="H328" s="6" t="n">
         <v>198</v>
       </c>
-      <c r="I328" s="7" t="s">
+      <c r="I328" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="7" t="s">
+      <c r="A329" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="B329" s="7" t="s">
+      <c r="B329" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="C329" s="7" t="s">
+      <c r="C329" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D329" s="7" t="s">
+      <c r="D329" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E329" s="3" t="n">
         <v>43674</v>
       </c>
-      <c r="F329" s="7" t="n">
+      <c r="F329" s="6" t="n">
         <v>2019</v>
       </c>
-      <c r="H329" s="7" t="n">
+      <c r="H329" s="6" t="n">
         <v>228</v>
       </c>
-      <c r="I329" s="7" t="s">
+      <c r="I329" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="7" t="s">
+      <c r="A330" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B330" s="7" t="s">
+      <c r="B330" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C330" s="7" t="s">
+      <c r="C330" s="6" t="s">
         <v>702</v>
       </c>
-      <c r="D330" s="7" t="s">
+      <c r="D330" s="6" t="s">
         <v>703</v>
       </c>
       <c r="E330" s="3" t="n">
         <v>43683</v>
       </c>
-      <c r="F330" s="7" t="n">
+      <c r="F330" s="6" t="n">
         <v>2019</v>
       </c>
-      <c r="H330" s="7" t="n">
+      <c r="H330" s="6" t="n">
         <v>252</v>
       </c>
-      <c r="I330" s="7" t="s">
+      <c r="I330" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -11969,6 +12015,136 @@
       </c>
       <c r="I356" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="F357" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H357" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="I357" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E358" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F358" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H358" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="I358" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E359" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="F359" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H359" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="I359" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H360" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="I360" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E361" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="F361" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H361" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="I361" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1972" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="781">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2361,6 +2361,30 @@
   </si>
   <si>
     <t xml:space="preserve">7-May</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenience Store Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sayaka Murata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Moonstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilkie Collins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Name of the Rose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umbero Eco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michael Christie</t>
   </si>
 </sst>
 </file>
@@ -2574,10 +2598,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K365"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A360" activeCellId="0" sqref="A360"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E371" activeCellId="0" sqref="E371"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12134,7 +12158,7 @@
       <c r="D361" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E361" s="1" t="s">
+      <c r="E361" s="7" t="s">
         <v>772</v>
       </c>
       <c r="F361" s="1" t="n">
@@ -12144,6 +12168,110 @@
         <v>345</v>
       </c>
       <c r="I361" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E362" s="7" t="n">
+        <v>43962</v>
+      </c>
+      <c r="F362" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H362" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="I362" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E363" s="7" t="n">
+        <v>43976</v>
+      </c>
+      <c r="F363" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H363" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="I363" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E364" s="7" t="n">
+        <v>44013</v>
+      </c>
+      <c r="F364" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H364" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="I364" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E365" s="7" t="n">
+        <v>44025</v>
+      </c>
+      <c r="F365" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H365" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="I365" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="785">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2385,6 +2385,18 @@
   </si>
   <si>
     <t xml:space="preserve">Michael Christie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Something I’ve Been Meaning to Tell You</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lives of Girls and Women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rachel Kushner</t>
   </si>
 </sst>
 </file>
@@ -2598,10 +2610,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K365"/>
+  <dimension ref="A1:K368"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E371" activeCellId="0" sqref="E371"/>
+      <selection pane="topLeft" activeCell="I370" activeCellId="0" sqref="I370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12273,6 +12285,84 @@
       </c>
       <c r="I365" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E366" s="7" t="n">
+        <v>44040</v>
+      </c>
+      <c r="F366" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H366" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="I366" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E367" s="7" t="n">
+        <v>44058</v>
+      </c>
+      <c r="F367" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H367" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="I367" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E368" s="7" t="n">
+        <v>44065</v>
+      </c>
+      <c r="F368" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H368" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="787">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2397,6 +2397,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rachel Kushner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat Johnson</t>
   </si>
 </sst>
 </file>
@@ -2610,10 +2616,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K368"/>
+  <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I370" activeCellId="0" sqref="I370"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C364" activeCellId="0" sqref="C364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12301,13 +12307,13 @@
         <v>24</v>
       </c>
       <c r="E366" s="7" t="n">
-        <v>44040</v>
+        <v>44034</v>
       </c>
       <c r="F366" s="1" t="n">
         <v>2020</v>
       </c>
       <c r="H366" s="1" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>25</v>
@@ -12363,6 +12369,32 @@
       </c>
       <c r="I368" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E369" s="7" t="n">
+        <v>44072</v>
+      </c>
+      <c r="F369" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H369" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="I369" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="793">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2404,6 +2404,24 @@
   <si>
     <t xml:space="preserve">Mat Johnson</t>
   </si>
+  <si>
+    <t xml:space="preserve">Sisters Brothers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patrick DeWitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sympathizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Thanh Nguyen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Setting Sun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osamu Dazai</t>
+  </si>
 </sst>
 </file>
 
@@ -2416,7 +2434,7 @@
     <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2438,6 +2456,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2477,7 +2503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2501,48 +2527,72 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Pivot Table Corner" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Value" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Field" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Category" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2616,10 +2666,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K369"/>
+  <dimension ref="A1:K372"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B341" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C364" activeCellId="0" sqref="C364"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A332" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B349" activeCellId="0" sqref="B349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12202,7 +12252,7 @@
       <c r="D362" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E362" s="7" t="n">
+      <c r="E362" s="3" t="n">
         <v>43962</v>
       </c>
       <c r="F362" s="1" t="n">
@@ -12228,7 +12278,7 @@
       <c r="D363" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E363" s="7" t="n">
+      <c r="E363" s="3" t="n">
         <v>43976</v>
       </c>
       <c r="F363" s="1" t="n">
@@ -12254,7 +12304,7 @@
       <c r="D364" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E364" s="7" t="n">
+      <c r="E364" s="3" t="n">
         <v>44013</v>
       </c>
       <c r="F364" s="1" t="n">
@@ -12280,7 +12330,7 @@
       <c r="D365" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E365" s="7" t="n">
+      <c r="E365" s="3" t="n">
         <v>44025</v>
       </c>
       <c r="F365" s="1" t="n">
@@ -12306,7 +12356,7 @@
       <c r="D366" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E366" s="7" t="n">
+      <c r="E366" s="3" t="n">
         <v>44034</v>
       </c>
       <c r="F366" s="1" t="n">
@@ -12332,7 +12382,7 @@
       <c r="D367" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E367" s="7" t="n">
+      <c r="E367" s="3" t="n">
         <v>44058</v>
       </c>
       <c r="F367" s="1" t="n">
@@ -12358,7 +12408,7 @@
       <c r="D368" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E368" s="7" t="n">
+      <c r="E368" s="3" t="n">
         <v>44065</v>
       </c>
       <c r="F368" s="1" t="n">
@@ -12384,7 +12434,7 @@
       <c r="D369" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E369" s="7" t="n">
+      <c r="E369" s="3" t="n">
         <v>44072</v>
       </c>
       <c r="F369" s="1" t="n">
@@ -12394,6 +12444,84 @@
         <v>322</v>
       </c>
       <c r="I369" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E370" s="3" t="n">
+        <v>44081</v>
+      </c>
+      <c r="F370" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H370" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="I370" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E371" s="3" t="n">
+        <v>44087</v>
+      </c>
+      <c r="F371" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H371" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" s="3" t="n">
+        <v>44088</v>
+      </c>
+      <c r="F372" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H372" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="I372" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2027" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="794">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -1589,9 +1589,6 @@
   </si>
   <si>
     <t xml:space="preserve">Juan José Saer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaish</t>
   </si>
   <si>
     <t xml:space="preserve">New York to Nome</t>
@@ -2422,6 +2419,12 @@
   <si>
     <t xml:space="preserve">Osamu Dazai</t>
   </si>
+  <si>
+    <t xml:space="preserve">A Dream Come True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Onetti</t>
+  </si>
 </sst>
 </file>
 
@@ -2434,7 +2437,7 @@
     <numFmt numFmtId="167" formatCode="M/D/YYYY"/>
     <numFmt numFmtId="168" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2456,14 +2459,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2503,7 +2498,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="26">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2527,72 +2522,48 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Pivot Table Corner" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Value" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Field" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Category" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Title" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Result" xfId="25" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2666,10 +2637,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K372"/>
+  <dimension ref="A1:K373"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A332" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B349" activeCellId="0" sqref="B349"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I374" activeCellId="0" sqref="I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8933,7 +8904,7 @@
         <v>91</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>522</v>
+        <v>20</v>
       </c>
       <c r="E236" s="3" t="n">
         <v>42644</v>
@@ -8950,10 +8921,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>28</v>
@@ -8976,10 +8947,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>228</v>
@@ -9002,7 +8973,7 @@
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>359</v>
@@ -9028,7 +8999,7 @@
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>281</v>
@@ -9054,7 +9025,7 @@
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>359</v>
@@ -9080,10 +9051,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>23</v>
@@ -9106,7 +9077,7 @@
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>364</v>
@@ -9132,7 +9103,7 @@
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>398</v>
@@ -9158,10 +9129,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>336</v>
@@ -9184,7 +9155,7 @@
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>392</v>
@@ -9210,16 +9181,16 @@
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C247" s="1" t="s">
+      <c r="D247" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="E247" s="3" t="n">
         <v>42854</v>
@@ -9236,10 +9207,10 @@
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>28</v>
@@ -9262,13 +9233,13 @@
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>107</v>
@@ -9288,10 +9259,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>100</v>
@@ -9314,10 +9285,10 @@
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>28</v>
@@ -9340,7 +9311,7 @@
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>461</v>
@@ -9366,16 +9337,16 @@
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="D253" s="1" t="s">
         <v>553</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E253" s="3" t="n">
         <v>42943</v>
@@ -9392,13 +9363,13 @@
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>24</v>
@@ -9418,10 +9389,10 @@
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="B255" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>336</v>
@@ -9444,10 +9415,10 @@
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="B256" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>91</v>
@@ -9470,10 +9441,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>91</v>
@@ -9496,10 +9467,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>564</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>565</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>292</v>
@@ -9522,7 +9493,7 @@
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>31</v>
@@ -9548,7 +9519,7 @@
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>85</v>
@@ -9574,10 +9545,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>28</v>
@@ -9600,10 +9571,10 @@
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>571</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>228</v>
@@ -9626,10 +9597,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>28</v>
@@ -9652,10 +9623,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>575</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>11</v>
@@ -9678,10 +9649,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>577</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>28</v>
@@ -9704,10 +9675,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>579</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>28</v>
@@ -9730,10 +9701,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>28</v>
@@ -9756,10 +9727,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="C268" s="1" t="s">
         <v>28</v>
@@ -9782,10 +9753,10 @@
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="C269" s="1" t="s">
         <v>28</v>
@@ -9808,13 +9779,13 @@
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>586</v>
-      </c>
       <c r="C270" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>107</v>
@@ -9834,10 +9805,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="C271" s="1" t="s">
         <v>28</v>
@@ -9860,10 +9831,10 @@
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="C272" s="1" t="s">
         <v>23</v>
@@ -9886,7 +9857,7 @@
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>152</v>
@@ -9912,10 +9883,10 @@
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C274" s="1" t="s">
         <v>28</v>
@@ -9938,10 +9909,10 @@
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>593</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="C275" s="1" t="s">
         <v>28</v>
@@ -9964,7 +9935,7 @@
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>364</v>
@@ -9990,16 +9961,16 @@
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C277" s="1" t="s">
+      <c r="D277" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="D277" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="E277" s="3" t="n">
         <v>43232</v>
@@ -10019,7 +9990,7 @@
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>405</v>
@@ -10045,10 +10016,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>601</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>602</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>23</v>
@@ -10071,10 +10042,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>131</v>
@@ -10100,7 +10071,7 @@
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>235</v>
@@ -10126,13 +10097,13 @@
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>24</v>
@@ -10152,7 +10123,7 @@
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>412</v>
@@ -10178,16 +10149,16 @@
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="C284" s="1" t="s">
+      <c r="D284" s="1" t="s">
         <v>612</v>
-      </c>
-      <c r="D284" s="1" t="s">
-        <v>613</v>
       </c>
       <c r="E284" s="3" t="n">
         <v>43319</v>
@@ -10204,10 +10175,10 @@
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="C285" s="1" t="s">
         <v>131</v>
@@ -10230,7 +10201,7 @@
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>260</v>
@@ -10256,10 +10227,10 @@
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>617</v>
-      </c>
-      <c r="B287" s="1" t="s">
-        <v>618</v>
       </c>
       <c r="C287" s="1" t="s">
         <v>165</v>
@@ -10282,10 +10253,10 @@
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>619</v>
-      </c>
-      <c r="B288" s="1" t="s">
-        <v>620</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>32</v>
@@ -10308,16 +10279,16 @@
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>622</v>
-      </c>
       <c r="C289" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D289" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="D289" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="E289" s="3" t="n">
         <v>43353</v>
@@ -10334,10 +10305,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="B290" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="C290" s="1" t="s">
         <v>91</v>
@@ -10360,7 +10331,7 @@
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>204</v>
@@ -10386,10 +10357,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>131</v>
@@ -10412,7 +10383,7 @@
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>10</v>
@@ -10438,16 +10409,16 @@
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="C294" s="1" t="s">
+      <c r="D294" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="D294" s="1" t="s">
-        <v>631</v>
       </c>
       <c r="E294" s="3" t="n">
         <v>43435</v>
@@ -10467,10 +10438,10 @@
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>23</v>
@@ -10496,10 +10467,10 @@
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>106</v>
@@ -10522,16 +10493,16 @@
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>636</v>
-      </c>
       <c r="C297" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D297" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D297" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="E297" s="3" t="n">
         <v>43454</v>
@@ -10548,13 +10519,13 @@
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>24</v>
@@ -10577,10 +10548,10 @@
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>23</v>
@@ -10603,10 +10574,10 @@
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>642</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>643</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>75</v>
@@ -10629,10 +10600,10 @@
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>644</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>645</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>28</v>
@@ -10658,10 +10629,10 @@
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>647</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>28</v>
@@ -10687,13 +10658,13 @@
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B303" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>649</v>
-      </c>
       <c r="C303" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>107</v>
@@ -10713,13 +10684,13 @@
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B304" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>651</v>
-      </c>
       <c r="C304" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>24</v>
@@ -10742,10 +10713,10 @@
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B305" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>28</v>
@@ -10768,10 +10739,10 @@
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B306" s="1" t="s">
         <v>654</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>655</v>
       </c>
       <c r="C306" s="1" t="s">
         <v>106</v>
@@ -10797,13 +10768,13 @@
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B307" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B307" s="1" t="s">
+      <c r="C307" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>107</v>
@@ -10823,7 +10794,7 @@
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>118</v>
@@ -10849,10 +10820,10 @@
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B309" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>75</v>
@@ -10875,10 +10846,10 @@
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B310" s="1" t="s">
         <v>662</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>663</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>28</v>
@@ -10903,7 +10874,7 @@
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>356</v>
@@ -10929,10 +10900,10 @@
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B312" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="C312" s="1" t="s">
         <v>28</v>
@@ -10955,13 +10926,13 @@
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B313" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B313" s="1" t="s">
+      <c r="C313" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>24</v>
@@ -10981,10 +10952,10 @@
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C314" s="1" t="s">
         <v>75</v>
@@ -11007,10 +10978,10 @@
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B315" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="B315" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>471</v>
@@ -11036,10 +11007,10 @@
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B316" s="1" t="s">
         <v>673</v>
-      </c>
-      <c r="B316" s="1" t="s">
-        <v>674</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>28</v>
@@ -11062,10 +11033,10 @@
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B317" s="1" t="s">
         <v>675</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>676</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>23</v>
@@ -11088,10 +11059,10 @@
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B318" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>451</v>
@@ -11114,7 +11085,7 @@
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>450</v>
@@ -11140,13 +11111,13 @@
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B320" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B320" s="1" t="s">
+      <c r="C320" s="1" t="s">
         <v>681</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>682</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>24</v>
@@ -11166,10 +11137,10 @@
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B321" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="B321" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>47</v>
@@ -11192,10 +11163,10 @@
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="B322" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>228</v>
@@ -11218,7 +11189,7 @@
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>392</v>
@@ -11244,10 +11215,10 @@
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B324" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>210</v>
@@ -11273,10 +11244,10 @@
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B325" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>23</v>
@@ -11299,10 +11270,10 @@
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>210</v>
@@ -11325,13 +11296,13 @@
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B327" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="C327" s="6" t="s">
         <v>694</v>
-      </c>
-      <c r="C327" s="6" t="s">
-        <v>695</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>107</v>
@@ -11351,10 +11322,10 @@
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="B328" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B328" s="6" t="s">
-        <v>697</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>91</v>
@@ -11377,10 +11348,10 @@
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="B329" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="B329" s="6" t="s">
-        <v>699</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>91</v>
@@ -11403,16 +11374,16 @@
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B330" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="C330" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="D330" s="6" t="s">
         <v>702</v>
-      </c>
-      <c r="D330" s="6" t="s">
-        <v>703</v>
       </c>
       <c r="E330" s="3" t="n">
         <v>43683</v>
@@ -11429,16 +11400,16 @@
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B331" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>705</v>
-      </c>
       <c r="C331" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D331" s="1" t="s">
         <v>598</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>599</v>
       </c>
       <c r="E331" s="3" t="n">
         <v>43691</v>
@@ -11455,10 +11426,10 @@
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="C332" s="1" t="s">
         <v>75</v>
@@ -11481,10 +11452,10 @@
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B333" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>11</v>
@@ -11507,10 +11478,10 @@
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B334" s="1" t="s">
         <v>710</v>
-      </c>
-      <c r="B334" s="1" t="s">
-        <v>711</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>23</v>
@@ -11533,10 +11504,10 @@
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B335" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="B335" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="C335" s="1" t="s">
         <v>28</v>
@@ -11559,7 +11530,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>444</v>
@@ -11585,10 +11556,10 @@
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B337" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="B337" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="C337" s="1" t="s">
         <v>23</v>
@@ -11611,7 +11582,7 @@
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>364</v>
@@ -11637,13 +11608,13 @@
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="C339" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>498</v>
@@ -11663,7 +11634,7 @@
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>18</v>
@@ -11689,10 +11660,10 @@
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>722</v>
-      </c>
-      <c r="B341" s="1" t="s">
-        <v>723</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>395</v>
@@ -11715,10 +11686,10 @@
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>28</v>
@@ -11741,10 +11712,10 @@
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B343" s="1" t="s">
         <v>725</v>
-      </c>
-      <c r="B343" s="1" t="s">
-        <v>726</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>64</v>
@@ -11767,7 +11738,7 @@
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>359</v>
@@ -11793,10 +11764,10 @@
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B345" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="B345" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>11</v>
@@ -11822,10 +11793,10 @@
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>395</v>
@@ -11851,10 +11822,10 @@
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B347" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="B347" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>106</v>
@@ -11877,16 +11848,16 @@
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B348" s="1" t="s">
         <v>733</v>
-      </c>
-      <c r="B348" s="1" t="s">
-        <v>734</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>451</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E348" s="3" t="n">
         <v>43830</v>
@@ -11903,10 +11874,10 @@
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B349" s="1" t="s">
         <v>736</v>
-      </c>
-      <c r="B349" s="1" t="s">
-        <v>737</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>28</v>
@@ -11929,16 +11900,16 @@
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B350" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="C350" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="D350" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="E350" s="3" t="n">
         <v>43851</v>
@@ -11955,13 +11926,13 @@
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B351" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B351" s="1" t="s">
+      <c r="C351" s="1" t="s">
         <v>743</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>744</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>340</v>
@@ -11981,10 +11952,10 @@
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B352" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>746</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>336</v>
@@ -12007,19 +11978,19 @@
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="E353" s="1" t="s">
         <v>747</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="E353" s="1" t="s">
-        <v>748</v>
       </c>
       <c r="F353" s="1" t="n">
         <v>2020</v>
@@ -12033,10 +12004,10 @@
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="B354" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>28</v>
@@ -12045,7 +12016,7 @@
         <v>24</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F354" s="1" t="n">
         <v>2020</v>
@@ -12059,10 +12030,10 @@
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B355" s="1" t="s">
         <v>752</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>224</v>
@@ -12071,7 +12042,7 @@
         <v>101</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F355" s="1" t="n">
         <v>2020</v>
@@ -12085,10 +12056,10 @@
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>28</v>
@@ -12097,7 +12068,7 @@
         <v>24</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F356" s="1" t="n">
         <v>2020</v>
@@ -12111,19 +12082,19 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B357" s="1" t="s">
+      <c r="C357" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="C357" s="1" t="s">
+      <c r="D357" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E357" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="D357" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E357" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="F357" s="1" t="n">
         <v>2020</v>
@@ -12137,10 +12108,10 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="B358" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>28</v>
@@ -12149,7 +12120,7 @@
         <v>24</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F358" s="1" t="n">
         <v>2020</v>
@@ -12163,10 +12134,10 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B359" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="B359" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>23</v>
@@ -12175,7 +12146,7 @@
         <v>24</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F359" s="1" t="n">
         <v>2020</v>
@@ -12189,10 +12160,10 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B360" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="B360" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>23</v>
@@ -12201,7 +12172,7 @@
         <v>24</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F360" s="1" t="n">
         <v>2020</v>
@@ -12215,10 +12186,10 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>23</v>
@@ -12227,7 +12198,7 @@
         <v>24</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F361" s="1" t="n">
         <v>2020</v>
@@ -12241,10 +12212,10 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B362" s="1" t="s">
         <v>773</v>
-      </c>
-      <c r="B362" s="1" t="s">
-        <v>774</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>11</v>
@@ -12267,10 +12238,10 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B363" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="B363" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>23</v>
@@ -12293,10 +12264,10 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B364" s="1" t="s">
         <v>777</v>
-      </c>
-      <c r="B364" s="1" t="s">
-        <v>778</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>47</v>
@@ -12319,10 +12290,10 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="B365" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="B365" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>165</v>
@@ -12345,7 +12316,7 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>281</v>
@@ -12371,7 +12342,7 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>281</v>
@@ -12397,10 +12368,10 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B368" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="B368" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="C368" s="1" t="s">
         <v>28</v>
@@ -12423,10 +12394,10 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B369" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="B369" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>28</v>
@@ -12449,10 +12420,10 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B370" s="1" t="s">
         <v>787</v>
-      </c>
-      <c r="B370" s="1" t="s">
-        <v>788</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>165</v>
@@ -12475,10 +12446,10 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="B371" s="1" t="s">
-        <v>790</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>28</v>
@@ -12501,10 +12472,10 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B372" s="1" t="s">
         <v>791</v>
-      </c>
-      <c r="B372" s="1" t="s">
-        <v>792</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>11</v>
@@ -12522,6 +12493,32 @@
         <v>175</v>
       </c>
       <c r="I372" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E373" s="3" t="n">
+        <v>44096</v>
+      </c>
+      <c r="F373" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H373" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="I373" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="796">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2424,6 +2424,12 @@
   </si>
   <si>
     <t xml:space="preserve">Juan Carlos Onetti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mushroom at the End of the World</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna LowenHaupt Tsing</t>
   </si>
 </sst>
 </file>
@@ -2637,10 +2643,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K373"/>
+  <dimension ref="A1:K374"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I374" activeCellId="0" sqref="I374"/>
+      <selection pane="topLeft" activeCell="A363" activeCellId="0" sqref="A363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12520,6 +12526,32 @@
       </c>
       <c r="I373" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E374" s="3" t="n">
+        <v>44102</v>
+      </c>
+      <c r="F374" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H374" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="I374" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2037" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="799">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2430,6 +2430,15 @@
   </si>
   <si>
     <t xml:space="preserve">Anna LowenHaupt Tsing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jim Harrison</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9-Oct</t>
   </si>
 </sst>
 </file>
@@ -2643,10 +2652,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K374"/>
+  <dimension ref="A1:K375"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A363" activeCellId="0" sqref="A363"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B363" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D375" activeCellId="0" sqref="D375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12552,6 +12561,32 @@
       </c>
       <c r="I374" s="1" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B375" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E375" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F375" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H375" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="I375" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="806">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2439,6 +2439,27 @@
   </si>
   <si>
     <t xml:space="preserve">9-Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fair Play</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tove Jansson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock without Hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carson McCullers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14-Oct</t>
   </si>
 </sst>
 </file>
@@ -2652,10 +2673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K375"/>
+  <dimension ref="A1:K377"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B363" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D375" activeCellId="0" sqref="D375"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A363" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B374" activeCellId="0" sqref="B374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12587,6 +12608,58 @@
       </c>
       <c r="I375" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F376" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H376" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="I376" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B377" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F377" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H377" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="809">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2460,6 +2460,15 @@
   </si>
   <si>
     <t xml:space="preserve">14-Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After the Winter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalupe Nettel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19-Oct</t>
   </si>
 </sst>
 </file>
@@ -2673,10 +2682,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K377"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A363" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B374" activeCellId="0" sqref="B374"/>
+      <selection pane="topLeft" activeCell="E384" activeCellId="0" sqref="E384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12662,6 +12671,33 @@
         <v>25</v>
       </c>
     </row>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F378" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H378" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="I378" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:J330"/>
   <hyperlinks>

--- a/Books.xlsx
+++ b/Books.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="812">
   <si>
     <t xml:space="preserve">Book</t>
   </si>
@@ -2469,6 +2469,15 @@
   </si>
   <si>
     <t xml:space="preserve">19-Oct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speedboats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renata Adler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-Oct</t>
   </si>
 </sst>
 </file>
@@ -2684,8 +2693,8 @@
   </sheetPr>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A363" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E384" activeCellId="0" sqref="E384"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A370" activeCellId="0" sqref="A370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12606,7 +12615,7 @@
       <c r="D375" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E375" s="1" t="s">
+      <c r="E375" s="3" t="s">
         <v>798</v>
       </c>
       <c r="F375" s="1" t="n">
@@ -12632,7 +12641,7 @@
       <c r="D376" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E376" s="1" t="s">
+      <c r="E376" s="3" t="s">
         <v>802</v>
       </c>
       <c r="F376" s="1" t="n">
@@ -12658,7 +12667,7 @@
       <c r="D377" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E377" s="1" t="s">
+      <c r="E377" s="3" t="s">
         <v>805</v>
       </c>
       <c r="F377" s="1" t="n">
@@ -12684,7 +12693,7 @@
       <c r="D378" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E378" s="1" t="s">
+      <c r="E378" s="3" t="s">
         <v>808</v>
       </c>
       <c r="F378" s="1" t="n">
@@ -12694,6 +12703,32 @@
         <v>242</v>
       </c>
       <c r="I378" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="F379" s="1" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H379" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="I379" s="1" t="s">
         <v>25</v>
       </c>
     </row>
